--- a/data/input/absenteeism_data_10.xlsx
+++ b/data/input/absenteeism_data_10.xlsx
@@ -476,74 +476,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10906</v>
+        <v>75569</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Matheus da Rocha</t>
+          <t>Vicente Campos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45104</v>
+        <v>45098</v>
       </c>
       <c r="G2" t="n">
-        <v>4455.92</v>
+        <v>5236.81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>72813</v>
+        <v>34782</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Enzo Castro</t>
+          <t>Sra. Manuela Alves</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45103</v>
+        <v>45079</v>
       </c>
       <c r="G3" t="n">
-        <v>6417.12</v>
+        <v>8813.889999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>89243</v>
+        <v>29543</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dr. Matheus Nunes</t>
+          <t>Ana Carolina Silva</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,56 +552,56 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45087</v>
+        <v>45084</v>
       </c>
       <c r="G4" t="n">
-        <v>3669.36</v>
+        <v>8595.02</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>15773</v>
+        <v>65723</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dra. Catarina Teixeira</t>
+          <t>Sr. Henrique Correia</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45102</v>
+        <v>45078</v>
       </c>
       <c r="G5" t="n">
-        <v>12251.24</v>
+        <v>11750.43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>87644</v>
+        <v>13303</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Camila Barbosa</t>
+          <t>Isis Fernandes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -613,77 +613,77 @@
         <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45085</v>
+        <v>45104</v>
       </c>
       <c r="G6" t="n">
-        <v>4963.61</v>
+        <v>9790.530000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>43010</v>
+        <v>44074</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>João Gabriel Jesus</t>
+          <t>André Costela</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45085</v>
+        <v>45102</v>
       </c>
       <c r="G7" t="n">
-        <v>3482.85</v>
+        <v>7653.43</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>81341</v>
+        <v>91779</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dra. Catarina Porto</t>
+          <t>Luiz Fernando Farias</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45078</v>
+        <v>45089</v>
       </c>
       <c r="G8" t="n">
-        <v>10036.78</v>
+        <v>10326.67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>80506</v>
+        <v>67844</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Caio Alves</t>
+          <t>Camila da Cruz</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -693,60 +693,60 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45094</v>
+        <v>45093</v>
       </c>
       <c r="G9" t="n">
-        <v>5118.08</v>
+        <v>4937.24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>46780</v>
+        <v>58123</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Arthur das Neves</t>
+          <t>Melissa Silveira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45097</v>
+        <v>45090</v>
       </c>
       <c r="G10" t="n">
-        <v>7844.13</v>
+        <v>6637.48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5608</v>
+        <v>35809</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Juliana Costa</t>
+          <t>Lavínia Vieira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45099</v>
+        <v>45078</v>
       </c>
       <c r="G11" t="n">
-        <v>5246.04</v>
+        <v>11046.88</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_10.xlsx
+++ b/data/input/absenteeism_data_10.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>75569</v>
+        <v>13604</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vicente Campos</t>
+          <t>Ana Laura Rezende</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,56 +494,56 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45098</v>
+        <v>45081</v>
       </c>
       <c r="G2" t="n">
-        <v>5236.81</v>
+        <v>5337.07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>34782</v>
+        <v>33493</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sra. Manuela Alves</t>
+          <t>Dra. Emilly Viana</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45079</v>
+        <v>45101</v>
       </c>
       <c r="G3" t="n">
-        <v>8813.889999999999</v>
+        <v>11403.17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>29543</v>
+        <v>28519</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ana Carolina Silva</t>
+          <t>Dr. Carlos Eduardo Almeida</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,109 +552,109 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45084</v>
+        <v>45095</v>
       </c>
       <c r="G4" t="n">
-        <v>8595.02</v>
+        <v>8914.16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>65723</v>
+        <v>14164</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sr. Henrique Correia</t>
+          <t>Srta. Lívia Ferreira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45078</v>
+        <v>45105</v>
       </c>
       <c r="G5" t="n">
-        <v>11750.43</v>
+        <v>11422.44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>13303</v>
+        <v>13163</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Isis Fernandes</t>
+          <t>Mariana Costa</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45104</v>
+        <v>45087</v>
       </c>
       <c r="G6" t="n">
-        <v>9790.530000000001</v>
+        <v>11826.01</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>44074</v>
+        <v>23224</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>André Costela</t>
+          <t>Igor Araújo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45102</v>
+        <v>45079</v>
       </c>
       <c r="G7" t="n">
-        <v>7653.43</v>
+        <v>5419.78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>91779</v>
+        <v>58311</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Luiz Fernando Farias</t>
+          <t>Davi Luiz Nascimento</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,104 +664,104 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45089</v>
+        <v>45085</v>
       </c>
       <c r="G8" t="n">
-        <v>10326.67</v>
+        <v>11545.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>67844</v>
+        <v>54724</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Camila da Cruz</t>
+          <t>Enzo Gabriel Martins</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45093</v>
+        <v>45105</v>
       </c>
       <c r="G9" t="n">
-        <v>4937.24</v>
+        <v>3483.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>58123</v>
+        <v>24559</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Melissa Silveira</t>
+          <t>João Felipe Azevedo</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45090</v>
+        <v>45101</v>
       </c>
       <c r="G10" t="n">
-        <v>6637.48</v>
+        <v>8919.290000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>35809</v>
+        <v>38730</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lavínia Vieira</t>
+          <t>João Pedro da Rosa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45078</v>
+        <v>45089</v>
       </c>
       <c r="G11" t="n">
-        <v>11046.88</v>
+        <v>2707.2</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_10.xlsx
+++ b/data/input/absenteeism_data_10.xlsx
@@ -476,69 +476,69 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13604</v>
+        <v>83557</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ana Laura Rezende</t>
+          <t>Henrique Nogueira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45081</v>
+        <v>45101</v>
       </c>
       <c r="G2" t="n">
-        <v>5337.07</v>
+        <v>9950.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>33493</v>
+        <v>47977</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dra. Emilly Viana</t>
+          <t>Samuel Peixoto</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45101</v>
+        <v>45099</v>
       </c>
       <c r="G3" t="n">
-        <v>11403.17</v>
+        <v>3182.64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>28519</v>
+        <v>13152</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dr. Carlos Eduardo Almeida</t>
+          <t>Rafaela Nogueira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,84 +548,84 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45095</v>
+        <v>45101</v>
       </c>
       <c r="G4" t="n">
-        <v>8914.16</v>
+        <v>3152.95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>14164</v>
+        <v>81468</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Srta. Lívia Ferreira</t>
+          <t>Mirella Mendes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45105</v>
+        <v>45103</v>
       </c>
       <c r="G5" t="n">
-        <v>11422.44</v>
+        <v>3900.29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>13163</v>
+        <v>91527</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mariana Costa</t>
+          <t>Luiz Felipe Fogaça</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45087</v>
+        <v>45091</v>
       </c>
       <c r="G6" t="n">
-        <v>11826.01</v>
+        <v>12096.65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>23224</v>
+        <v>69710</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Igor Araújo</t>
+          <t>Marcela da Cruz</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,31 +635,31 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45079</v>
+        <v>45080</v>
       </c>
       <c r="G7" t="n">
-        <v>5419.78</v>
+        <v>8243.450000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>58311</v>
+        <v>37243</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Davi Luiz Nascimento</t>
+          <t>Antônio Cardoso</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,100 +668,100 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45085</v>
+        <v>45090</v>
       </c>
       <c r="G8" t="n">
-        <v>11545.2</v>
+        <v>4002.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>54724</v>
+        <v>42005</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Enzo Gabriel Martins</t>
+          <t>Gustavo Henrique Porto</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45105</v>
+        <v>45100</v>
       </c>
       <c r="G9" t="n">
-        <v>3483.1</v>
+        <v>10499.97</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>24559</v>
+        <v>83930</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>João Felipe Azevedo</t>
+          <t>Isabel Rezende</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45101</v>
+        <v>45089</v>
       </c>
       <c r="G10" t="n">
-        <v>8919.290000000001</v>
+        <v>5332.38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>38730</v>
+        <v>85508</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>João Pedro da Rosa</t>
+          <t>Isabel Carvalho</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45089</v>
+        <v>45081</v>
       </c>
       <c r="G11" t="n">
-        <v>2707.2</v>
+        <v>4253.5</v>
       </c>
     </row>
   </sheetData>
